--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -440,7 +440,7 @@
         <v>344138.57</v>
       </c>
       <c r="G3">
-        <v>443795.47</v>
+        <v>456380.94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -458,6 +458,9 @@
       </c>
       <c r="F4">
         <v>323995.99</v>
+      </c>
+      <c r="G4">
+        <v>134915.14</v>
       </c>
     </row>
     <row r="5" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -374,258 +374,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D1" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E1" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G1" s="1">
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>50518.99</v>
+      </c>
       <c r="C2">
-        <v>50520.99</v>
+        <v>141789.57</v>
       </c>
       <c r="D2">
-        <v>141804.95</v>
+        <v>162810.55</v>
       </c>
       <c r="E2">
-        <v>162843.23</v>
+        <v>331129.46</v>
       </c>
       <c r="F2">
-        <v>331318.89</v>
-      </c>
-      <c r="G2">
-        <v>403018.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>402689.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>20354.44</v>
+      </c>
       <c r="C3">
-        <v>21324.24</v>
+        <v>150139.79</v>
       </c>
       <c r="D3">
-        <v>150166.71</v>
+        <v>187082.86</v>
       </c>
       <c r="E3">
-        <v>187284.72</v>
+        <v>343644.5</v>
       </c>
       <c r="F3">
-        <v>344138.57</v>
-      </c>
-      <c r="G3">
-        <v>456380.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>453755.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>65838.63</v>
+      </c>
       <c r="C4">
-        <v>65838.63</v>
+        <v>164999.57</v>
       </c>
       <c r="D4">
-        <v>166620.23</v>
+        <v>193765.12</v>
       </c>
       <c r="E4">
-        <v>193786.84</v>
+        <v>323694.55</v>
       </c>
       <c r="F4">
-        <v>323995.99</v>
-      </c>
-      <c r="G4">
-        <v>134915.14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>158167.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>46161.32</v>
+      </c>
       <c r="C5">
-        <v>46161.32</v>
+        <v>130298.05</v>
       </c>
       <c r="D5">
-        <v>130348.58</v>
+        <v>215432.77</v>
       </c>
       <c r="E5">
-        <v>215439.97</v>
-      </c>
-      <c r="F5">
-        <v>396408.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>396044.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>47815.15</v>
+      </c>
       <c r="C6">
-        <v>47815.15</v>
+        <v>115915.98</v>
       </c>
       <c r="D6">
-        <v>115923.13</v>
+        <v>220684.43</v>
       </c>
       <c r="E6">
-        <v>220807.59</v>
-      </c>
-      <c r="F6">
-        <v>378480.22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>378096.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>64428.92</v>
+      </c>
       <c r="C7">
-        <v>64428.92</v>
+        <v>141564.4</v>
       </c>
       <c r="D7">
-        <v>141324.93</v>
+        <v>246532.18</v>
       </c>
       <c r="E7">
-        <v>246540.72</v>
-      </c>
-      <c r="F7">
-        <v>403893.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>403206.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>72571.03</v>
+      </c>
       <c r="C8">
-        <v>72571.03</v>
+        <v>136354.87</v>
       </c>
       <c r="D8">
-        <v>136278.09</v>
+        <v>223998.98</v>
       </c>
       <c r="E8">
-        <v>225679.44</v>
-      </c>
-      <c r="F8">
-        <v>389554.43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>389318.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>116043.68</v>
+      </c>
       <c r="C9">
-        <v>117644.99</v>
+        <v>144340.4</v>
       </c>
       <c r="D9">
-        <v>148973.56</v>
+        <v>267309.71</v>
       </c>
       <c r="E9">
-        <v>267326.16</v>
-      </c>
-      <c r="F9">
-        <v>382490.28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>381723.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>80188.33</v>
+        <v>112241.8</v>
       </c>
       <c r="C10">
-        <v>114056.17</v>
+        <v>153181.38</v>
       </c>
       <c r="D10">
-        <v>153315.28</v>
+        <v>292606.09</v>
       </c>
       <c r="E10">
-        <v>292751.94</v>
-      </c>
-      <c r="F10">
-        <v>387682.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>386980.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>40491.07</v>
+        <v>117919.45</v>
       </c>
       <c r="C11">
-        <v>120207.54</v>
+        <v>134868.15</v>
       </c>
       <c r="D11">
-        <v>134867.6</v>
+        <v>331822.65</v>
       </c>
       <c r="E11">
-        <v>332005.29</v>
-      </c>
-      <c r="F11">
-        <v>418223.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>418014.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18815.61</v>
+        <v>129704.99</v>
       </c>
       <c r="C12">
-        <v>129704.99</v>
+        <v>151292.14</v>
       </c>
       <c r="D12">
-        <v>151314.9</v>
+        <v>249653.56</v>
       </c>
       <c r="E12">
-        <v>249661.6</v>
-      </c>
-      <c r="F12">
-        <v>309720.57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>309538.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23098.81</v>
+        <v>106870.37</v>
       </c>
       <c r="C13">
-        <v>106870.37</v>
+        <v>201369.38</v>
       </c>
       <c r="D13">
-        <v>201429.72</v>
+        <v>251128.74</v>
       </c>
       <c r="E13">
-        <v>251259.08</v>
-      </c>
-      <c r="F13">
-        <v>382246.32</v>
+        <v>381502.92</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -374,243 +374,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="1">
         <v>2021</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2022</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2023</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2024</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>50518.99</v>
-      </c>
       <c r="C2">
-        <v>141789.57</v>
+        <v>11682.62</v>
       </c>
       <c r="D2">
-        <v>162810.55</v>
+        <v>43029.98</v>
       </c>
       <c r="E2">
-        <v>331129.46</v>
+        <v>52760.71</v>
       </c>
       <c r="F2">
-        <v>402689.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>90737.31</v>
+      </c>
+      <c r="G2">
+        <v>106156.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>20354.44</v>
-      </c>
       <c r="C3">
-        <v>150139.79</v>
+        <v>8654.09</v>
       </c>
       <c r="D3">
-        <v>187082.86</v>
+        <v>42931.49</v>
       </c>
       <c r="E3">
-        <v>343644.5</v>
+        <v>55235.92</v>
       </c>
       <c r="F3">
-        <v>453755.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>93714.89</v>
+      </c>
+      <c r="G3">
+        <v>110632.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>65838.63</v>
-      </c>
       <c r="C4">
-        <v>164999.57</v>
+        <v>13401.71</v>
       </c>
       <c r="D4">
-        <v>193765.12</v>
+        <v>46060.74</v>
       </c>
       <c r="E4">
-        <v>323694.55</v>
+        <v>64193.54</v>
       </c>
       <c r="F4">
-        <v>158167.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>84818.77</v>
+      </c>
+      <c r="G4">
+        <v>83990.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>46161.32</v>
-      </c>
       <c r="C5">
-        <v>130298.05</v>
+        <v>16166.33</v>
       </c>
       <c r="D5">
-        <v>215432.77</v>
+        <v>42566.03</v>
       </c>
       <c r="E5">
-        <v>396044.77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>60035.67</v>
+      </c>
+      <c r="F5">
+        <v>101395.59</v>
+      </c>
+      <c r="G5">
+        <v>95827.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>47815.15</v>
-      </c>
       <c r="C6">
-        <v>115915.98</v>
+        <v>13436.58</v>
       </c>
       <c r="D6">
-        <v>220684.43</v>
+        <v>36440.33</v>
       </c>
       <c r="E6">
-        <v>378096.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>68445.73</v>
+      </c>
+      <c r="F6">
+        <v>92789.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>64428.92</v>
-      </c>
       <c r="C7">
-        <v>141564.4</v>
+        <v>18576.1</v>
       </c>
       <c r="D7">
-        <v>246532.18</v>
+        <v>41979.5</v>
       </c>
       <c r="E7">
-        <v>403206.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>68280.27</v>
+      </c>
+      <c r="F7">
+        <v>101320.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>72571.03</v>
-      </c>
       <c r="C8">
-        <v>136354.87</v>
+        <v>15605.42</v>
       </c>
       <c r="D8">
-        <v>223998.98</v>
+        <v>36927.96</v>
       </c>
       <c r="E8">
-        <v>389318.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>63709.16</v>
+      </c>
+      <c r="F8">
+        <v>103779.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>116043.68</v>
-      </c>
       <c r="C9">
-        <v>144340.4</v>
+        <v>30073.31</v>
       </c>
       <c r="D9">
-        <v>267309.71</v>
+        <v>39097.26</v>
       </c>
       <c r="E9">
-        <v>381723.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>77793.75</v>
+      </c>
+      <c r="F9">
+        <v>102460.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>112241.8</v>
+        <v>5513.09</v>
       </c>
       <c r="C10">
-        <v>153181.38</v>
+        <v>32873.05</v>
       </c>
       <c r="D10">
-        <v>292606.09</v>
+        <v>50202.25</v>
       </c>
       <c r="E10">
-        <v>386980.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>77438.89999999999</v>
+      </c>
+      <c r="F10">
+        <v>108365.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>117919.45</v>
+        <v>5255.93</v>
       </c>
       <c r="C11">
-        <v>134868.15</v>
+        <v>42033.55</v>
       </c>
       <c r="D11">
-        <v>331822.65</v>
+        <v>38621.84</v>
       </c>
       <c r="E11">
-        <v>418014.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>85404.96000000001</v>
+      </c>
+      <c r="F11">
+        <v>124976.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>129704.99</v>
+        <v>8403.630000000001</v>
       </c>
       <c r="C12">
-        <v>151292.14</v>
+        <v>42634.32</v>
       </c>
       <c r="D12">
-        <v>249653.56</v>
+        <v>41810.82</v>
       </c>
       <c r="E12">
-        <v>309538.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>64809.84</v>
+      </c>
+      <c r="F12">
+        <v>80778.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>106870.37</v>
+        <v>4693.76</v>
       </c>
       <c r="C13">
-        <v>201369.38</v>
+        <v>34781.06</v>
       </c>
       <c r="D13">
-        <v>251128.74</v>
+        <v>44681.08</v>
       </c>
       <c r="E13">
-        <v>381502.92</v>
+        <v>64356.44</v>
+      </c>
+      <c r="F13">
+        <v>111925.01</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -480,7 +480,7 @@
         <v>101395.59</v>
       </c>
       <c r="G5">
-        <v>95827.67</v>
+        <v>106739.17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -498,6 +498,9 @@
       </c>
       <c r="F6">
         <v>92789.5</v>
+      </c>
+      <c r="G6">
+        <v>14154.09</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -408,19 +408,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>11682.62</v>
+        <v>50552.49</v>
       </c>
       <c r="D2">
-        <v>43029.98</v>
+        <v>141804.95</v>
       </c>
       <c r="E2">
-        <v>52760.71</v>
+        <v>162843.23</v>
       </c>
       <c r="F2">
-        <v>90737.31</v>
+        <v>331318.89</v>
       </c>
       <c r="G2">
-        <v>106156.53</v>
+        <v>406328.41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -428,19 +428,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8654.09</v>
+        <v>20364.19</v>
       </c>
       <c r="D3">
-        <v>42931.49</v>
+        <v>150166.71</v>
       </c>
       <c r="E3">
-        <v>55235.92</v>
+        <v>187284.72</v>
       </c>
       <c r="F3">
-        <v>93714.89</v>
+        <v>343860.01</v>
       </c>
       <c r="G3">
-        <v>110632.57</v>
+        <v>500094.77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -448,19 +448,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>13401.71</v>
+        <v>65838.63</v>
       </c>
       <c r="D4">
-        <v>46060.74</v>
+        <v>166620.23</v>
       </c>
       <c r="E4">
-        <v>64193.54</v>
+        <v>193951.64</v>
       </c>
       <c r="F4">
-        <v>84818.77</v>
+        <v>326978.27</v>
       </c>
       <c r="G4">
-        <v>83990.55</v>
+        <v>396688.65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -468,19 +468,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>16166.33</v>
+        <v>46495.92</v>
       </c>
       <c r="D5">
-        <v>42566.03</v>
+        <v>130348.58</v>
       </c>
       <c r="E5">
-        <v>60035.67</v>
+        <v>215439.97</v>
       </c>
       <c r="F5">
-        <v>101395.59</v>
+        <v>397776.36</v>
       </c>
       <c r="G5">
-        <v>106739.17</v>
+        <v>577277.87</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -488,19 +488,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>13436.58</v>
+        <v>47815.15</v>
       </c>
       <c r="D6">
-        <v>36440.33</v>
+        <v>115923.13</v>
       </c>
       <c r="E6">
-        <v>68445.73</v>
+        <v>220807.59</v>
       </c>
       <c r="F6">
-        <v>92789.5</v>
+        <v>378480.22</v>
       </c>
       <c r="G6">
-        <v>14154.09</v>
+        <v>108661.68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -508,16 +508,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>18576.1</v>
+        <v>64471.91</v>
       </c>
       <c r="D7">
-        <v>41979.5</v>
+        <v>141324.93</v>
       </c>
       <c r="E7">
-        <v>68280.27</v>
+        <v>246540.72</v>
       </c>
       <c r="F7">
-        <v>101320.28</v>
+        <v>404637.8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -525,16 +525,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>15605.42</v>
+        <v>72574.36</v>
       </c>
       <c r="D8">
-        <v>36927.96</v>
+        <v>136278.09</v>
       </c>
       <c r="E8">
-        <v>63709.16</v>
+        <v>225495.54</v>
       </c>
       <c r="F8">
-        <v>103779.05</v>
+        <v>390987.58</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -542,16 +542,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>30073.31</v>
+        <v>117644.99</v>
       </c>
       <c r="D9">
-        <v>39097.26</v>
+        <v>148973.56</v>
       </c>
       <c r="E9">
-        <v>77793.75</v>
+        <v>267994.44</v>
       </c>
       <c r="F9">
-        <v>102460.71</v>
+        <v>382184.28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -559,19 +559,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5513.09</v>
+        <v>40853.22</v>
       </c>
       <c r="C10">
-        <v>32873.05</v>
+        <v>114056.17</v>
       </c>
       <c r="D10">
-        <v>50202.25</v>
+        <v>153358.48</v>
       </c>
       <c r="E10">
-        <v>77438.89999999999</v>
+        <v>292751.94</v>
       </c>
       <c r="F10">
-        <v>108365.58</v>
+        <v>388159.1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5255.93</v>
+        <v>33166.69</v>
       </c>
       <c r="C11">
-        <v>42033.55</v>
+        <v>120207.54</v>
       </c>
       <c r="D11">
-        <v>38621.84</v>
+        <v>134867.6</v>
       </c>
       <c r="E11">
-        <v>85404.96000000001</v>
+        <v>332005.29</v>
       </c>
       <c r="F11">
-        <v>124976.98</v>
+        <v>418223.63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -599,19 +599,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8403.630000000001</v>
+        <v>18865.61</v>
       </c>
       <c r="C12">
-        <v>42634.32</v>
+        <v>129914.47</v>
       </c>
       <c r="D12">
-        <v>41810.82</v>
+        <v>151314.9</v>
       </c>
       <c r="E12">
-        <v>64809.84</v>
+        <v>249776.5</v>
       </c>
       <c r="F12">
-        <v>80778.8</v>
+        <v>310802.37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,19 +619,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4693.76</v>
+        <v>23152.14</v>
       </c>
       <c r="C13">
-        <v>34781.06</v>
+        <v>106870.37</v>
       </c>
       <c r="D13">
-        <v>44681.08</v>
+        <v>201429.72</v>
       </c>
       <c r="E13">
-        <v>64356.44</v>
+        <v>251259.08</v>
       </c>
       <c r="F13">
-        <v>111925.01</v>
+        <v>384074.17</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -408,19 +408,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>50552.49</v>
+        <v>50520.99</v>
       </c>
       <c r="D2">
-        <v>141804.95</v>
+        <v>141960.2</v>
       </c>
       <c r="E2">
-        <v>162843.23</v>
+        <v>164490.68</v>
       </c>
       <c r="F2">
-        <v>331318.89</v>
+        <v>327246.8</v>
       </c>
       <c r="G2">
-        <v>406328.41</v>
+        <v>402851.09</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -428,19 +428,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>20364.19</v>
+        <v>20344.44</v>
       </c>
       <c r="D3">
-        <v>150166.71</v>
+        <v>150440.59</v>
       </c>
       <c r="E3">
-        <v>187284.72</v>
+        <v>189967.91</v>
       </c>
       <c r="F3">
-        <v>343860.01</v>
+        <v>347725.48</v>
       </c>
       <c r="G3">
-        <v>500094.77</v>
+        <v>457315.71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -451,16 +451,16 @@
         <v>65838.63</v>
       </c>
       <c r="D4">
-        <v>166620.23</v>
+        <v>167917.14</v>
       </c>
       <c r="E4">
-        <v>193951.64</v>
+        <v>196889.99</v>
       </c>
       <c r="F4">
-        <v>326978.27</v>
+        <v>325429.09</v>
       </c>
       <c r="G4">
-        <v>396688.65</v>
+        <v>362961.66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -468,19 +468,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>46495.92</v>
+        <v>44518.43</v>
       </c>
       <c r="D5">
-        <v>130348.58</v>
+        <v>130937.67</v>
       </c>
       <c r="E5">
-        <v>215439.97</v>
+        <v>220983.18</v>
       </c>
       <c r="F5">
-        <v>397776.36</v>
+        <v>411174.53</v>
       </c>
       <c r="G5">
-        <v>577277.87</v>
+        <v>415905.04</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -491,16 +491,16 @@
         <v>47815.15</v>
       </c>
       <c r="D6">
-        <v>115923.13</v>
+        <v>116057.63</v>
       </c>
       <c r="E6">
-        <v>220807.59</v>
+        <v>222492.71</v>
       </c>
       <c r="F6">
-        <v>378480.22</v>
+        <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>108661.68</v>
+        <v>134984.25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -508,16 +508,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>64471.91</v>
+        <v>64428.92</v>
       </c>
       <c r="D7">
-        <v>141324.93</v>
+        <v>142478.65</v>
       </c>
       <c r="E7">
-        <v>246540.72</v>
+        <v>249067.64</v>
       </c>
       <c r="F7">
-        <v>404637.8</v>
+        <v>412060.64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -525,16 +525,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>72574.36</v>
+        <v>72571.03</v>
       </c>
       <c r="D8">
-        <v>136278.09</v>
+        <v>139276.88</v>
       </c>
       <c r="E8">
-        <v>225495.54</v>
+        <v>224412.72</v>
       </c>
       <c r="F8">
-        <v>390987.58</v>
+        <v>395421.28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -542,16 +542,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>117644.99</v>
+        <v>116521.88</v>
       </c>
       <c r="D9">
-        <v>148973.56</v>
+        <v>152291.48</v>
       </c>
       <c r="E9">
-        <v>267994.44</v>
+        <v>272902.32</v>
       </c>
       <c r="F9">
-        <v>382184.28</v>
+        <v>390627.44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -559,19 +559,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>40853.22</v>
+        <v>40596.4</v>
       </c>
       <c r="C10">
         <v>114056.17</v>
       </c>
       <c r="D10">
-        <v>153358.48</v>
+        <v>157483.4</v>
       </c>
       <c r="E10">
-        <v>292751.94</v>
+        <v>301536.61</v>
       </c>
       <c r="F10">
-        <v>388159.1</v>
+        <v>396072.84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>33166.69</v>
       </c>
       <c r="C11">
-        <v>120207.54</v>
+        <v>119518.98</v>
       </c>
       <c r="D11">
-        <v>134867.6</v>
+        <v>134933.1</v>
       </c>
       <c r="E11">
-        <v>332005.29</v>
+        <v>335641.61</v>
       </c>
       <c r="F11">
-        <v>418223.63</v>
+        <v>434296.15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -599,19 +599,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18865.61</v>
+        <v>18815.61</v>
       </c>
       <c r="C12">
-        <v>129914.47</v>
+        <v>129663.99</v>
       </c>
       <c r="D12">
-        <v>151314.9</v>
+        <v>151498.73</v>
       </c>
       <c r="E12">
-        <v>249776.5</v>
+        <v>253267.57</v>
       </c>
       <c r="F12">
-        <v>310802.37</v>
+        <v>309659.47</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,19 +619,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23152.14</v>
+        <v>23098.81</v>
       </c>
       <c r="C13">
-        <v>106870.37</v>
+        <v>107309.77</v>
       </c>
       <c r="D13">
         <v>201429.72</v>
       </c>
       <c r="E13">
-        <v>251259.08</v>
+        <v>254321.08</v>
       </c>
       <c r="F13">
-        <v>384074.17</v>
+        <v>381298.1</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>134984.25</v>
+        <v>271068.6</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>271068.6</v>
+        <v>320608.22</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -480,7 +480,7 @@
         <v>411174.53</v>
       </c>
       <c r="G5">
-        <v>415905.04</v>
+        <v>415800.64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>320608.22</v>
+        <v>336607.69</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>336607.69</v>
+        <v>354229.69</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>354229.69</v>
+        <v>363908.26</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>363908.26</v>
+        <v>399394.57</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>399394.57</v>
+        <v>415483.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>415483.35</v>
+        <v>463379.33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -518,6 +518,9 @@
       </c>
       <c r="F7">
         <v>412060.64</v>
+      </c>
+      <c r="G7">
+        <v>3672.65</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>463379.33</v>
+        <v>465206.39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,7 +520,7 @@
         <v>412060.64</v>
       </c>
       <c r="G7">
-        <v>3672.65</v>
+        <v>38341.46</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>465206.39</v>
+        <v>471175.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,7 +520,7 @@
         <v>412060.64</v>
       </c>
       <c r="G7">
-        <v>38341.46</v>
+        <v>66702.33</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -500,7 +500,7 @@
         <v>386420.95</v>
       </c>
       <c r="G6">
-        <v>471175.08</v>
+        <v>471282.33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,7 +520,7 @@
         <v>412060.64</v>
       </c>
       <c r="G7">
-        <v>66702.33</v>
+        <v>87492.83</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -411,16 +411,16 @@
         <v>50520.99</v>
       </c>
       <c r="D2">
-        <v>141960.2</v>
+        <v>141804.95</v>
       </c>
       <c r="E2">
-        <v>164490.68</v>
+        <v>162843.23</v>
       </c>
       <c r="F2">
-        <v>327246.8</v>
+        <v>331318.89</v>
       </c>
       <c r="G2">
-        <v>402851.09</v>
+        <v>403018.76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -431,16 +431,16 @@
         <v>20344.44</v>
       </c>
       <c r="D3">
-        <v>150440.59</v>
+        <v>150166.71</v>
       </c>
       <c r="E3">
-        <v>189967.91</v>
+        <v>187284.72</v>
       </c>
       <c r="F3">
-        <v>347725.48</v>
+        <v>343648.67</v>
       </c>
       <c r="G3">
-        <v>457315.71</v>
+        <v>456271.58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -451,16 +451,16 @@
         <v>65838.63</v>
       </c>
       <c r="D4">
-        <v>167917.14</v>
+        <v>166620.23</v>
       </c>
       <c r="E4">
-        <v>196889.99</v>
+        <v>193786.84</v>
       </c>
       <c r="F4">
-        <v>325429.09</v>
+        <v>323995.99</v>
       </c>
       <c r="G4">
-        <v>362961.66</v>
+        <v>381373.46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -468,19 +468,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>44518.43</v>
+        <v>46161.32</v>
       </c>
       <c r="D5">
-        <v>130937.67</v>
+        <v>130348.58</v>
       </c>
       <c r="E5">
-        <v>220983.18</v>
+        <v>215439.97</v>
       </c>
       <c r="F5">
-        <v>411174.53</v>
+        <v>396408.69</v>
       </c>
       <c r="G5">
-        <v>415800.64</v>
+        <v>424615.57</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -491,16 +491,16 @@
         <v>47815.15</v>
       </c>
       <c r="D6">
-        <v>116057.63</v>
+        <v>115923.13</v>
       </c>
       <c r="E6">
-        <v>222492.71</v>
+        <v>220807.59</v>
       </c>
       <c r="F6">
-        <v>386420.95</v>
+        <v>378480.22</v>
       </c>
       <c r="G6">
-        <v>471282.33</v>
+        <v>490874.2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -511,16 +511,16 @@
         <v>64428.92</v>
       </c>
       <c r="D7">
-        <v>142478.65</v>
+        <v>141324.93</v>
       </c>
       <c r="E7">
-        <v>249067.64</v>
+        <v>246540.72</v>
       </c>
       <c r="F7">
-        <v>412060.64</v>
+        <v>403893.3</v>
       </c>
       <c r="G7">
-        <v>87492.83</v>
+        <v>116449.89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,13 +531,13 @@
         <v>72571.03</v>
       </c>
       <c r="D8">
-        <v>139276.88</v>
+        <v>136278.09</v>
       </c>
       <c r="E8">
-        <v>224412.72</v>
+        <v>225495.54</v>
       </c>
       <c r="F8">
-        <v>395421.28</v>
+        <v>389554.43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -545,16 +545,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>116521.88</v>
+        <v>117644.99</v>
       </c>
       <c r="D9">
-        <v>152291.48</v>
+        <v>148973.56</v>
       </c>
       <c r="E9">
-        <v>272902.32</v>
+        <v>267326.16</v>
       </c>
       <c r="F9">
-        <v>390627.44</v>
+        <v>382184.28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,13 +568,13 @@
         <v>114056.17</v>
       </c>
       <c r="D10">
-        <v>157483.4</v>
+        <v>153315.28</v>
       </c>
       <c r="E10">
-        <v>301536.61</v>
+        <v>292751.94</v>
       </c>
       <c r="F10">
-        <v>396072.84</v>
+        <v>387682.65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -585,16 +585,16 @@
         <v>33166.69</v>
       </c>
       <c r="C11">
-        <v>119518.98</v>
+        <v>120207.54</v>
       </c>
       <c r="D11">
-        <v>134933.1</v>
+        <v>134867.6</v>
       </c>
       <c r="E11">
-        <v>335641.61</v>
+        <v>332005.29</v>
       </c>
       <c r="F11">
-        <v>434296.15</v>
+        <v>418223.63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,16 +605,16 @@
         <v>18815.61</v>
       </c>
       <c r="C12">
-        <v>129663.99</v>
+        <v>129704.99</v>
       </c>
       <c r="D12">
-        <v>151498.73</v>
+        <v>151314.9</v>
       </c>
       <c r="E12">
-        <v>253267.57</v>
+        <v>249661.6</v>
       </c>
       <c r="F12">
-        <v>309659.47</v>
+        <v>309720.57</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -625,16 +625,16 @@
         <v>23098.81</v>
       </c>
       <c r="C13">
-        <v>107309.77</v>
+        <v>106870.37</v>
       </c>
       <c r="D13">
         <v>201429.72</v>
       </c>
       <c r="E13">
-        <v>254321.08</v>
+        <v>251259.08</v>
       </c>
       <c r="F13">
-        <v>381298.1</v>
+        <v>382246.32</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -408,19 +408,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>50520.99</v>
+        <v>50518.99</v>
       </c>
       <c r="D2">
-        <v>141804.95</v>
+        <v>141789.57</v>
       </c>
       <c r="E2">
-        <v>162843.23</v>
+        <v>162819.35</v>
       </c>
       <c r="F2">
-        <v>331318.89</v>
+        <v>331129.46</v>
       </c>
       <c r="G2">
-        <v>403018.76</v>
+        <v>402689.42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -428,19 +428,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>20344.44</v>
+        <v>20354.44</v>
       </c>
       <c r="D3">
-        <v>150166.71</v>
+        <v>150139.79</v>
       </c>
       <c r="E3">
-        <v>187284.72</v>
+        <v>187082.86</v>
       </c>
       <c r="F3">
-        <v>343648.67</v>
+        <v>343644.5</v>
       </c>
       <c r="G3">
-        <v>456271.58</v>
+        <v>455942.8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -451,16 +451,16 @@
         <v>65838.63</v>
       </c>
       <c r="D4">
-        <v>166620.23</v>
+        <v>166638.29</v>
       </c>
       <c r="E4">
-        <v>193786.84</v>
+        <v>193765.12</v>
       </c>
       <c r="F4">
-        <v>323995.99</v>
+        <v>323694.55</v>
       </c>
       <c r="G4">
-        <v>381373.46</v>
+        <v>380953.36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -471,16 +471,16 @@
         <v>46161.32</v>
       </c>
       <c r="D5">
-        <v>130348.58</v>
+        <v>130298.05</v>
       </c>
       <c r="E5">
-        <v>215439.97</v>
+        <v>215432.77</v>
       </c>
       <c r="F5">
-        <v>396408.69</v>
+        <v>396044.77</v>
       </c>
       <c r="G5">
-        <v>424615.57</v>
+        <v>424509.78</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -491,16 +491,16 @@
         <v>47815.15</v>
       </c>
       <c r="D6">
-        <v>115923.13</v>
+        <v>115915.98</v>
       </c>
       <c r="E6">
-        <v>220807.59</v>
+        <v>220684.43</v>
       </c>
       <c r="F6">
-        <v>378480.22</v>
+        <v>378096.36</v>
       </c>
       <c r="G6">
-        <v>490874.2</v>
+        <v>490485.37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -511,16 +511,16 @@
         <v>64428.92</v>
       </c>
       <c r="D7">
-        <v>141324.93</v>
+        <v>141564.4</v>
       </c>
       <c r="E7">
-        <v>246540.72</v>
+        <v>246532.18</v>
       </c>
       <c r="F7">
-        <v>403893.3</v>
+        <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>116449.89</v>
+        <v>126538.86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,13 +531,13 @@
         <v>72571.03</v>
       </c>
       <c r="D8">
-        <v>136278.09</v>
+        <v>136354.87</v>
       </c>
       <c r="E8">
-        <v>225495.54</v>
+        <v>224304.98</v>
       </c>
       <c r="F8">
-        <v>389554.43</v>
+        <v>389318.8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -545,16 +545,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>117644.99</v>
+        <v>117632.99</v>
       </c>
       <c r="D9">
-        <v>148973.56</v>
+        <v>148788.4</v>
       </c>
       <c r="E9">
-        <v>267326.16</v>
+        <v>267309.71</v>
       </c>
       <c r="F9">
-        <v>382184.28</v>
+        <v>381906.92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -562,19 +562,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>40596.4</v>
+        <v>40488.91</v>
       </c>
       <c r="C10">
         <v>114056.17</v>
       </c>
       <c r="D10">
-        <v>153315.28</v>
+        <v>153181.38</v>
       </c>
       <c r="E10">
-        <v>292751.94</v>
+        <v>292606.09</v>
       </c>
       <c r="F10">
-        <v>387682.65</v>
+        <v>386980.51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,19 +582,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>33166.69</v>
+        <v>33106.69</v>
       </c>
       <c r="C11">
         <v>120207.54</v>
       </c>
       <c r="D11">
-        <v>134867.6</v>
+        <v>134868.15</v>
       </c>
       <c r="E11">
-        <v>332005.29</v>
+        <v>331822.65</v>
       </c>
       <c r="F11">
-        <v>418223.63</v>
+        <v>418014.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -608,13 +608,13 @@
         <v>129704.99</v>
       </c>
       <c r="D12">
-        <v>151314.9</v>
+        <v>151292.14</v>
       </c>
       <c r="E12">
-        <v>249661.6</v>
+        <v>249653.56</v>
       </c>
       <c r="F12">
-        <v>309720.57</v>
+        <v>309538.28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -622,19 +622,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23098.81</v>
+        <v>23097.81</v>
       </c>
       <c r="C13">
         <v>106870.37</v>
       </c>
       <c r="D13">
-        <v>201429.72</v>
+        <v>201369.38</v>
       </c>
       <c r="E13">
-        <v>251259.08</v>
+        <v>251128.74</v>
       </c>
       <c r="F13">
-        <v>382246.32</v>
+        <v>381502.92</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>126538.86</v>
+        <v>131817.31</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -480,7 +480,7 @@
         <v>396044.77</v>
       </c>
       <c r="G5">
-        <v>424509.78</v>
+        <v>424467.78</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>131817.31</v>
+        <v>151616.12</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>151616.12</v>
+        <v>168727.55</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>168727.55</v>
+        <v>176981.95</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>176981.95</v>
+        <v>202183.62</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>202183.62</v>
+        <v>217256.55</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>217256.55</v>
+        <v>232159.72</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>232159.72</v>
+        <v>235243.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>235243.35</v>
+        <v>303446.21</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>303446.21</v>
+        <v>319505.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>319505.1</v>
+        <v>336875.82</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>336875.82</v>
+        <v>365619.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>365619.47</v>
+        <v>375043.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>375043.35</v>
+        <v>429086.13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -538,6 +538,9 @@
       </c>
       <c r="F8">
         <v>389318.8</v>
+      </c>
+      <c r="G8">
+        <v>8693.200000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>429086.13</v>
+        <v>454917.41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>8693.200000000001</v>
+        <v>17646.03</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>454917.41</v>
+        <v>464144.88</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>17646.03</v>
+        <v>43384.59</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>464144.88</v>
+        <v>464149.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>43384.59</v>
+        <v>60805.83</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>60805.83</v>
+        <v>74243.58</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>74243.58</v>
+        <v>103822.63</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>464149.35</v>
+        <v>461755.75</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>103822.63</v>
+        <v>123687.43</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>123687.43</v>
+        <v>139313.15</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>461755.75</v>
+        <v>459362.15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>139313.15</v>
+        <v>152015.14</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>152015.14</v>
+        <v>174652.74</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>174652.74</v>
+        <v>193175.54</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>193175.54</v>
+        <v>249767.44</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>249767.44</v>
+        <v>265443.84</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>265443.84</v>
+        <v>279376.04</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>459362.15</v>
+        <v>464149.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>279376.04</v>
+        <v>283769.24</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>283769.24</v>
+        <v>297577.94</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>297577.94</v>
+        <v>307069.3</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>307069.3</v>
+        <v>318699.43</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>318699.43</v>
+        <v>324520.03</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -520,7 +520,7 @@
         <v>403206.55</v>
       </c>
       <c r="G7">
-        <v>464149.35</v>
+        <v>464704.3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>324520.03</v>
+        <v>337938.4</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>337938.4</v>
+        <v>348699.57</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>348699.57</v>
+        <v>856325.1799999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>856325.1799999999</v>
+        <v>898238.49</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>898238.49</v>
+        <v>933683.1</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>933683.1</v>
+        <v>955837.6299999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -558,6 +558,9 @@
       </c>
       <c r="F9">
         <v>381906.92</v>
+      </c>
+      <c r="G9">
+        <v>23013.08</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>955837.6299999999</v>
+        <v>959719.9099999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>23013.08</v>
+        <v>54152.85</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>54152.85</v>
+        <v>68578.69</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>68578.69</v>
+        <v>85807.16</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>85807.16</v>
+        <v>126521.27</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>959719.9099999999</v>
+        <v>963250.21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>126521.27</v>
+        <v>138618.97</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -540,7 +540,7 @@
         <v>389318.8</v>
       </c>
       <c r="G8">
-        <v>963250.21</v>
+        <v>959719.9099999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>138618.97</v>
+        <v>173888.81</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>173888.81</v>
+        <v>199845.82</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>199845.82</v>
+        <v>250448.66</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>250448.66</v>
+        <v>356320.51</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>356320.51</v>
+        <v>366814.31</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_mensal.xlsx
@@ -560,7 +560,7 @@
         <v>381906.92</v>
       </c>
       <c r="G9">
-        <v>366814.31</v>
+        <v>413907.85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
